--- a/project/Phase2/Sprint4/Burndown Chart.xlsx
+++ b/project/Phase2/Sprint4/Burndown Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barba\Documents\3ano\es\me_scrum_master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B86712-3520-4608-8423-0860988DBF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE63ED-8E2C-4FB4-8E16-9FEFAB29E6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Task ID</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Development of fronted for the previously idealized new features</t>
+  </si>
+  <si>
+    <t>Conception of tests</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -717,6 +720,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,7 +821,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$D$10:$H$10</c:f>
+              <c:f>'Burndown Chart'!$D$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -823,16 +829,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,21 +928,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$D$11:$H$11</c:f>
+              <c:f>'Burndown Chart'!$D$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -991,24 +997,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$D$12:$H$12</c:f>
+              <c:f>'Burndown Chart'!$D$13:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.636363636363637</c:v>
+                  <c:v>26.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.272727272727273</c:v>
+                  <c:v>23.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.909090909090907</c:v>
+                  <c:v>21.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.545454545454547</c:v>
+                  <c:v>18.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,7 +1201,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9639300" cy="5400675"/>
@@ -1423,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P990"/>
+  <dimension ref="B1:P991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1598,13 +1604,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
@@ -1620,27 +1626,27 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="11">
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="13">
-        <v>15</v>
-      </c>
-      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="53">
         <v>0</v>
       </c>
       <c r="F9" s="15">
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -1650,28 +1656,26 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="16">
+    <row r="10" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13">
+        <v>15</v>
+      </c>
+      <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="E10" s="17">
-        <f>SUM(E6:E9)</f>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
         <v>5</v>
       </c>
-      <c r="F10" s="17">
-        <f>SUM(F6:F9)</f>
-        <v>4</v>
-      </c>
-      <c r="G10" s="17">
-        <f>SUM(G6:G9)</f>
-        <v>7</v>
-      </c>
-      <c r="H10" s="35">
-        <f>SUM(H6:H9)</f>
+      <c r="H10" s="34">
         <v>10</v>
       </c>
       <c r="I10" s="25"/>
@@ -1680,33 +1684,31 @@
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="30"/>
+      <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="18">
-        <f>SUM(D6:D10)</f>
-        <v>26</v>
-      </c>
-      <c r="E11" s="19">
-        <f>D11-SUM(E6:E9)</f>
-        <v>21</v>
-      </c>
-      <c r="F11" s="20">
-        <f>E11-SUM(F6:F9)</f>
-        <v>17</v>
-      </c>
-      <c r="G11" s="20">
-        <f>F11-SUM(G6:G9)</f>
-        <v>10</v>
-      </c>
-      <c r="H11" s="36">
-        <f>G11-SUM(H6:H9)</f>
+    <row r="11" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="16">
         <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <f>SUM(E6:E10)</f>
+        <v>6</v>
+      </c>
+      <c r="F11" s="17">
+        <f>SUM(F6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="17">
+        <f>SUM(G6:G10)</f>
+        <v>7</v>
+      </c>
+      <c r="H11" s="35">
+        <f>SUM(H6:H10)</f>
+        <v>11</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
@@ -1714,32 +1716,33 @@
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="21">
-        <f>D11</f>
-        <v>26</v>
-      </c>
-      <c r="E12" s="22">
-        <f>$D$12-($D$12/11*1)</f>
-        <v>23.636363636363637</v>
-      </c>
-      <c r="F12" s="23">
-        <f>$D$12-($D$12/11*2)</f>
-        <v>21.272727272727273</v>
-      </c>
-      <c r="G12" s="23">
-        <f>$D$12-($D$12/11*3)</f>
-        <v>18.909090909090907</v>
-      </c>
-      <c r="H12" s="37">
-        <f>$D$12-($D$12/11*4)</f>
-        <v>16.545454545454547</v>
+      <c r="B12" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="18">
+        <f>SUM(D6:D11)</f>
+        <v>29</v>
+      </c>
+      <c r="E12" s="19">
+        <f>D12-SUM(E6:E10)</f>
+        <v>23</v>
+      </c>
+      <c r="F12" s="20">
+        <f>E12-SUM(F6:F10)</f>
+        <v>18</v>
+      </c>
+      <c r="G12" s="20">
+        <f>F12-SUM(G6:G10)</f>
+        <v>11</v>
+      </c>
+      <c r="H12" s="36">
+        <f>G12-SUM(H6:H10)</f>
+        <v>0</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -1750,22 +1753,54 @@
       <c r="O12" s="25"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
+      <c r="B13" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="21">
+        <f>D12</f>
+        <v>29</v>
+      </c>
+      <c r="E13" s="22">
+        <f>$D$13-($D$13/11*1)</f>
+        <v>26.363636363636363</v>
+      </c>
+      <c r="F13" s="23">
+        <f>$D$13-($D$13/11*2)</f>
+        <v>23.727272727272727</v>
+      </c>
+      <c r="G13" s="23">
+        <f>$D$13-($D$13/11*3)</f>
+        <v>21.090909090909093</v>
+      </c>
+      <c r="H13" s="37">
+        <f>$D$13-($D$13/11*4)</f>
+        <v>18.454545454545453</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
-    <row r="14" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+    </row>
     <row r="15" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="24">
+    <row r="21" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2734,14 +2769,15 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
